--- a/week_plan/2021_march_weekplan.xlsx
+++ b/week_plan/2021_march_weekplan.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowHeight="22240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>周计划</t>
   </si>
@@ -59,9 +60,6 @@
   </si>
   <si>
     <t>算法工程师</t>
-  </si>
-  <si>
-    <t>新员工联系</t>
   </si>
   <si>
     <t>周一</t>
@@ -130,11 +128,36 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">7   </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锻炼</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">7  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -143,7 +166,32 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">7   </t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联系日常</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9   </t>
     </r>
     <r>
       <rPr>
@@ -151,20 +199,23 @@
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>锻炼</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>锻炼</t>
+      <t>高效能人士的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个习惯</t>
     </r>
   </si>
   <si>
@@ -175,48 +226,6 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">8   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>联系日常</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>高效能人士的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个习惯</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">10   </t>
     </r>
     <r>
@@ -279,11 +288,18 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">10   </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>分析各方案的优劣</t>
@@ -291,11 +307,18 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">10   </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>接入测试和调整</t>
@@ -303,11 +326,18 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">10   </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>文字新功能开发计划</t>
@@ -315,11 +345,18 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">10   </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>文字新功能一实现</t>
@@ -327,11 +364,18 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">10   </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>打疫苗</t>
@@ -377,11 +421,18 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">13   </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>双向验证结果</t>
@@ -389,11 +440,18 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">14   </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>移植, 并接入app测试</t>
@@ -401,11 +459,18 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">14   </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>文字新功一能实现方案</t>
@@ -418,6 +483,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>Computer Architecture</t>
@@ -444,11 +510,18 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">16   </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>使用eigen求解约束方程</t>
@@ -474,7 +547,46 @@
     </r>
   </si>
   <si>
-    <t>20   新员工一些安排考虑</t>
+    <r>
+      <t xml:space="preserve">20   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.25"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新员工一些安排考虑</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高效能人士的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个习惯</t>
+    </r>
   </si>
   <si>
     <r>
@@ -489,18 +601,181 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其他安排</t>
+    </r>
+  </si>
+  <si>
+    <t>文字新需求plan</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>分享准备和完成</t>
+  </si>
+  <si>
+    <t>Lidar 深度图提交</t>
+  </si>
+  <si>
+    <t>文字需求plan</t>
+  </si>
+  <si>
+    <t>分享</t>
+  </si>
+  <si>
+    <t>Lidar 深度图打包提交</t>
+  </si>
+  <si>
+    <t>文字新需求计划&amp;实现</t>
+  </si>
+  <si>
+    <t>文字新需求实现</t>
+  </si>
+  <si>
+    <t>阅读</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锻炼</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>高效能人士的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
+      <t>富国论</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深度图打包提交</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文字新功能计划和实现</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文字新功能实现</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高效能人士的7个习惯</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本周计划</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">15   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Computer Architecture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bilateral filter深入理解(分享)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分享</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19   </t>
     </r>
     <r>
       <rPr>
@@ -508,17 +783,24 @@
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>个习惯</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
+      <t>联系日常</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>metal</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">20   </t>
     </r>
     <r>
@@ -527,7 +809,20 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>其他安排</t>
+      <t>分享准备</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>各种AA算法理解(分享)</t>
     </r>
   </si>
 </sst>
@@ -536,12 +831,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,6 +864,82 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -578,7 +949,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,8 +970,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -615,104 +1008,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -727,6 +1022,13 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.25"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -737,7 +1039,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,13 +1057,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,157 +1219,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,6 +1285,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -994,33 +1305,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1046,6 +1330,15 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1080,153 +1373,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1599,8 +1901,8 @@
   </sheetPr>
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1704,9 +2006,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3">
@@ -1726,30 +2026,30 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1760,26 +2060,26 @@
     </row>
     <row r="19" ht="34" spans="1:7">
       <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" t="s">
         <v>27</v>
-      </c>
-      <c r="E19" t="s">
-        <v>28</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1853,7 +2153,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1867,22 +2167,22 @@
         <v>7</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="30" ht="17" spans="1:7">
@@ -1890,16 +2190,16 @@
         <v>8</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F30" s="9">
         <v>8</v>
@@ -1928,27 +2228,27 @@
         <v>9</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" ht="34" spans="1:7">
       <c r="A32" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="D32" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="E32" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="F32" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="G32" s="9">
         <v>10</v>
@@ -1979,30 +2279,30 @@
     </row>
     <row r="34" ht="17" spans="1:7">
       <c r="A34" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" ht="17" spans="1:7">
       <c r="A35" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B35" s="9">
         <v>13</v>
@@ -2028,13 +2328,13 @@
         <v>14</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C36" s="9">
         <v>14</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E36" s="9">
         <v>14</v>
@@ -2063,15 +2363,15 @@
         <v>15</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" ht="17" spans="1:7">
       <c r="A38" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B38" s="9">
         <v>16</v>
@@ -2140,25 +2440,25 @@
     </row>
     <row r="41" ht="17" spans="1:7">
       <c r="A41" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F41" s="9">
         <v>19</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" ht="17" spans="1:7">
@@ -2166,7 +2466,7 @@
         <v>20</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C42" s="9">
         <v>20</v>
@@ -2178,10 +2478,10 @@
         <v>20</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2287,4 +2587,635 @@
   <pageSetup paperSize="9" scale="67" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="29.546875" customWidth="1"/>
+    <col min="2" max="2" width="33.4375" customWidth="1"/>
+    <col min="3" max="3" width="23.0625" customWidth="1"/>
+    <col min="4" max="4" width="23.8125" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="22.6875" customWidth="1"/>
+    <col min="7" max="7" width="21.6875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" ht="17" spans="1:7">
+      <c r="A19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" ht="17" spans="1:7">
+      <c r="A29" s="9">
+        <v>7</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" ht="17" spans="1:7">
+      <c r="A30" s="9">
+        <v>8</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="9">
+        <v>8</v>
+      </c>
+      <c r="G30" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" ht="17" spans="1:7">
+      <c r="A31" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="9">
+        <v>9</v>
+      </c>
+      <c r="F31" s="9">
+        <v>9</v>
+      </c>
+      <c r="G31" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" ht="17" spans="1:7">
+      <c r="A32" s="11">
+        <v>10</v>
+      </c>
+      <c r="B32" s="12">
+        <v>10</v>
+      </c>
+      <c r="C32" s="9">
+        <v>10</v>
+      </c>
+      <c r="D32" s="11">
+        <v>10</v>
+      </c>
+      <c r="E32" s="10">
+        <v>10</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="9">
+        <v>11</v>
+      </c>
+      <c r="B33" s="9">
+        <v>11</v>
+      </c>
+      <c r="C33" s="9">
+        <v>11</v>
+      </c>
+      <c r="D33" s="9">
+        <v>11</v>
+      </c>
+      <c r="E33" s="9">
+        <v>11</v>
+      </c>
+      <c r="F33" s="9">
+        <v>11</v>
+      </c>
+      <c r="G33" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" ht="17" spans="1:7">
+      <c r="A34" s="9">
+        <v>12</v>
+      </c>
+      <c r="B34" s="9">
+        <v>12</v>
+      </c>
+      <c r="C34" s="9">
+        <v>12</v>
+      </c>
+      <c r="D34" s="10">
+        <v>12</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="9">
+        <v>12</v>
+      </c>
+      <c r="G34" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="17" spans="1:7">
+      <c r="A35" s="9">
+        <v>13</v>
+      </c>
+      <c r="B35" s="9">
+        <v>13</v>
+      </c>
+      <c r="C35" s="9">
+        <v>13</v>
+      </c>
+      <c r="D35" s="9">
+        <v>13</v>
+      </c>
+      <c r="E35" s="9">
+        <v>13</v>
+      </c>
+      <c r="F35" s="9">
+        <v>13</v>
+      </c>
+      <c r="G35" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="9">
+        <v>14</v>
+      </c>
+      <c r="B36" s="9">
+        <v>14</v>
+      </c>
+      <c r="C36" s="9">
+        <v>14</v>
+      </c>
+      <c r="D36" s="10">
+        <v>14</v>
+      </c>
+      <c r="E36" s="9">
+        <v>14</v>
+      </c>
+      <c r="F36" s="9">
+        <v>14</v>
+      </c>
+      <c r="G36" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" ht="17" spans="1:7">
+      <c r="A37" s="9">
+        <v>15</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="9">
+        <v>15</v>
+      </c>
+      <c r="D37" s="9">
+        <v>15</v>
+      </c>
+      <c r="E37" s="9">
+        <v>15</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" ht="17" spans="1:7">
+      <c r="A38" s="9">
+        <v>16</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="9">
+        <v>16</v>
+      </c>
+      <c r="D38" s="9">
+        <v>16</v>
+      </c>
+      <c r="E38" s="9">
+        <v>16</v>
+      </c>
+      <c r="F38" s="9">
+        <v>16</v>
+      </c>
+      <c r="G38" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="17" spans="1:7">
+      <c r="A39" s="9">
+        <v>17</v>
+      </c>
+      <c r="B39" s="9">
+        <v>17</v>
+      </c>
+      <c r="C39" s="9">
+        <v>17</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="9">
+        <v>17</v>
+      </c>
+      <c r="F39" s="9">
+        <v>17</v>
+      </c>
+      <c r="G39" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="9">
+        <v>18</v>
+      </c>
+      <c r="B40" s="9">
+        <v>18</v>
+      </c>
+      <c r="C40" s="9">
+        <v>18</v>
+      </c>
+      <c r="D40" s="9">
+        <v>18</v>
+      </c>
+      <c r="E40" s="9">
+        <v>18</v>
+      </c>
+      <c r="F40" s="9">
+        <v>18</v>
+      </c>
+      <c r="G40" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" ht="17" spans="1:7">
+      <c r="A41" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" ht="17" spans="1:7">
+      <c r="A42" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="9">
+        <v>20</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="9">
+        <v>20</v>
+      </c>
+      <c r="E42" s="9">
+        <v>20</v>
+      </c>
+      <c r="F42" s="10">
+        <v>20</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="9">
+        <v>21</v>
+      </c>
+      <c r="B43" s="9">
+        <v>21</v>
+      </c>
+      <c r="C43" s="9">
+        <v>21</v>
+      </c>
+      <c r="D43" s="9">
+        <v>21</v>
+      </c>
+      <c r="E43" s="9">
+        <v>21</v>
+      </c>
+      <c r="F43" s="9">
+        <v>21</v>
+      </c>
+      <c r="G43" s="9">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A28:G28"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/week_plan/2021_march_weekplan.xlsx
+++ b/week_plan/2021_march_weekplan.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22240" activeTab="1"/>
+    <workbookView windowHeight="22240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
   <si>
     <t>周计划</t>
   </si>
@@ -478,6 +479,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">15   </t>
     </r>
     <r>
@@ -548,12 +555,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">20   </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="2" tint="-0.25"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>新员工一些安排考虑</t>
@@ -561,6 +575,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">20   </t>
     </r>
     <r>
@@ -608,6 +628,9 @@
     </r>
   </si>
   <si>
+    <t>第 1 周(3.8~3.12)</t>
+  </si>
+  <si>
     <t>文字新需求plan</t>
   </si>
   <si>
@@ -644,6 +667,21 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锻炼</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -652,6 +690,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">8   </t>
     </r>
     <r>
@@ -665,6 +709,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">9   </t>
     </r>
     <r>
@@ -678,6 +728,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">9   </t>
     </r>
     <r>
@@ -691,6 +747,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">9   </t>
     </r>
     <r>
@@ -709,14 +771,39 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>高效能人士的7个习惯</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高效能人士的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个习惯</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">15   </t>
     </r>
     <r>
@@ -730,12 +817,327 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">15   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Computer Architecture</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">16   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bilateral filter深入理解(分享)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分享</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">19   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联系日常</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>metal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联系日常</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">20   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分享准备</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">20   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>各种AA算法理解(分享)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其他安排</t>
+    </r>
+  </si>
+  <si>
+    <t>文字功能实现</t>
+  </si>
+  <si>
+    <t>文字需求实现</t>
+  </si>
+  <si>
+    <t>动画问题解决思路</t>
+  </si>
+  <si>
+    <t>动画问题解决</t>
+  </si>
+  <si>
+    <t>多层样式问题分析&amp;思路</t>
+  </si>
+  <si>
+    <t>多层样式问题开发</t>
+  </si>
+  <si>
+    <t>分享准备</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锻炼</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锻炼</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>富国论</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本周计划</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动画问题解决</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多层样式问题分析&amp;思路</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多层样式问题开发</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>character tracking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的问题</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高效能人士的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个习惯</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面试</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">15   </t>
     </r>
     <r>
@@ -757,19 +1159,6 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>bilateral filter深入理解(分享)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">17   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t>分享</t>
     </r>
   </si>
@@ -780,6 +1169,32 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kernel function demo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>metal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
@@ -788,25 +1203,12 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">19   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>metal</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">20   </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
       <t>分享准备</t>
@@ -822,7 +1224,20 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>各种AA算法理解(分享)</t>
+      <t>filament</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其他安排</t>
     </r>
   </si>
 </sst>
@@ -831,12 +1246,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -864,9 +1279,46 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0" tint="-0.5"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -880,14 +1332,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,6 +1343,21 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -917,14 +1377,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -933,15 +1385,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -962,47 +1416,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1024,10 +1446,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="2" tint="-0.25"/>
+      <color theme="0" tint="-0.5"/>
+      <name val="宋体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.5"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1039,7 +1478,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,55 +1646,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,115 +1658,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,7 +1728,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1309,37 +1787,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1359,26 +1811,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1387,152 +1826,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1574,6 +2013,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -2508,74 +2953,74 @@
       </c>
     </row>
     <row r="70" spans="4:6">
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
     </row>
     <row r="71" spans="4:6">
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
     </row>
     <row r="72" spans="4:6">
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
     </row>
     <row r="73" spans="4:6">
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
     </row>
     <row r="74" spans="4:6">
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
     </row>
     <row r="75" spans="4:6">
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
     </row>
     <row r="76" spans="4:6">
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
     </row>
     <row r="77" spans="4:6">
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
     </row>
     <row r="78" spans="4:6">
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
     </row>
     <row r="79" spans="4:6">
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
     </row>
     <row r="80" spans="4:6">
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
     </row>
     <row r="81" spans="4:6">
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
     </row>
     <row r="82" spans="4:6">
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
     </row>
     <row r="83" spans="4:6">
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2594,8 +3039,8 @@
   <sheetPr/>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2615,7 +3060,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2646,16 +3091,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2689,21 +3134,21 @@
         <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" s="4"/>
     </row>
@@ -2758,25 +3203,25 @@
     </row>
     <row r="19" ht="17" spans="1:7">
       <c r="A19" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>62</v>
+      <c r="F19" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2784,7 +3229,7 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -2869,7 +3314,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>30</v>
@@ -2881,10 +3326,10 @@
         <v>30</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" ht="17" spans="1:7">
@@ -2892,7 +3337,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>33</v>
@@ -2912,16 +3357,16 @@
     </row>
     <row r="31" ht="17" spans="1:7">
       <c r="A31" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E31" s="9">
         <v>9</v>
@@ -2950,10 +3395,10 @@
         <v>10</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3002,7 +3447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" ht="17" spans="1:7">
+    <row r="35" spans="1:7">
       <c r="A35" s="9">
         <v>13</v>
       </c>
@@ -3053,7 +3498,7 @@
         <v>15</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C37" s="9">
         <v>15</v>
@@ -3064,8 +3509,8 @@
       <c r="E37" s="9">
         <v>15</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>70</v>
+      <c r="F37" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="G37" s="9">
         <v>15</v>
@@ -3076,7 +3521,7 @@
         <v>16</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C38" s="9">
         <v>16</v>
@@ -3105,7 +3550,7 @@
         <v>17</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E39" s="9">
         <v>17</v>
@@ -3142,7 +3587,7 @@
     </row>
     <row r="41" ht="17" spans="1:7">
       <c r="A41" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>49</v>
@@ -3157,21 +3602,21 @@
         <v>49</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" ht="17" spans="1:7">
       <c r="A42" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B42" s="9">
         <v>20</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D42" s="9">
         <v>20</v>
@@ -3182,8 +3627,634 @@
       <c r="F42" s="10">
         <v>20</v>
       </c>
-      <c r="G42" s="9" t="s">
-        <v>52</v>
+      <c r="G42" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="9">
+        <v>21</v>
+      </c>
+      <c r="B43" s="9">
+        <v>21</v>
+      </c>
+      <c r="C43" s="9">
+        <v>21</v>
+      </c>
+      <c r="D43" s="9">
+        <v>21</v>
+      </c>
+      <c r="E43" s="9">
+        <v>21</v>
+      </c>
+      <c r="F43" s="9">
+        <v>21</v>
+      </c>
+      <c r="G43" s="9">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A28:G28"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="25.1328125" customWidth="1"/>
+    <col min="2" max="2" width="33.4375" customWidth="1"/>
+    <col min="3" max="3" width="23.0625" customWidth="1"/>
+    <col min="4" max="4" width="16.65625" customWidth="1"/>
+    <col min="5" max="5" width="17.0546875" customWidth="1"/>
+    <col min="6" max="6" width="22.53125" customWidth="1"/>
+    <col min="7" max="7" width="22.6875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" ht="17" spans="1:7">
+      <c r="A19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" ht="17" spans="1:7">
+      <c r="A29" s="9">
+        <v>7</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" ht="17" spans="1:7">
+      <c r="A30" s="9">
+        <v>8</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="9">
+        <v>8</v>
+      </c>
+      <c r="G30" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" ht="17" spans="1:7">
+      <c r="A31" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="9">
+        <v>9</v>
+      </c>
+      <c r="G31" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" ht="34" spans="1:7">
+      <c r="A32" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="12">
+        <v>10</v>
+      </c>
+      <c r="C32" s="9">
+        <v>10</v>
+      </c>
+      <c r="D32" s="11">
+        <v>10</v>
+      </c>
+      <c r="E32" s="10">
+        <v>10</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="9">
+        <v>11</v>
+      </c>
+      <c r="B33" s="9">
+        <v>11</v>
+      </c>
+      <c r="C33" s="9">
+        <v>11</v>
+      </c>
+      <c r="D33" s="9">
+        <v>11</v>
+      </c>
+      <c r="E33" s="9">
+        <v>11</v>
+      </c>
+      <c r="F33" s="9">
+        <v>11</v>
+      </c>
+      <c r="G33" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" ht="17" spans="1:7">
+      <c r="A34" s="9">
+        <v>12</v>
+      </c>
+      <c r="B34" s="9">
+        <v>12</v>
+      </c>
+      <c r="C34" s="9">
+        <v>12</v>
+      </c>
+      <c r="D34" s="10">
+        <v>12</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="9">
+        <v>12</v>
+      </c>
+      <c r="G34" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="17" spans="1:7">
+      <c r="A35" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="9">
+        <v>13</v>
+      </c>
+      <c r="C35" s="9">
+        <v>13</v>
+      </c>
+      <c r="D35" s="9">
+        <v>13</v>
+      </c>
+      <c r="E35" s="9">
+        <v>13</v>
+      </c>
+      <c r="F35" s="9">
+        <v>13</v>
+      </c>
+      <c r="G35" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="9">
+        <v>14</v>
+      </c>
+      <c r="B36" s="9">
+        <v>14</v>
+      </c>
+      <c r="C36" s="9">
+        <v>14</v>
+      </c>
+      <c r="D36" s="10">
+        <v>14</v>
+      </c>
+      <c r="E36" s="9">
+        <v>14</v>
+      </c>
+      <c r="F36" s="9">
+        <v>14</v>
+      </c>
+      <c r="G36" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" ht="17" spans="1:7">
+      <c r="A37" s="9">
+        <v>15</v>
+      </c>
+      <c r="B37" s="9">
+        <v>15</v>
+      </c>
+      <c r="C37" s="9">
+        <v>15</v>
+      </c>
+      <c r="D37" s="9">
+        <v>15</v>
+      </c>
+      <c r="E37" s="9">
+        <v>15</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" ht="17" spans="1:7">
+      <c r="A38" s="9">
+        <v>16</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="9">
+        <v>16</v>
+      </c>
+      <c r="D38" s="9">
+        <v>16</v>
+      </c>
+      <c r="E38" s="9">
+        <v>16</v>
+      </c>
+      <c r="F38" s="9">
+        <v>16</v>
+      </c>
+      <c r="G38" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="9">
+        <v>17</v>
+      </c>
+      <c r="B39" s="9">
+        <v>17</v>
+      </c>
+      <c r="C39" s="9">
+        <v>17</v>
+      </c>
+      <c r="D39" s="9">
+        <v>17</v>
+      </c>
+      <c r="E39" s="9">
+        <v>17</v>
+      </c>
+      <c r="F39" s="9">
+        <v>17</v>
+      </c>
+      <c r="G39" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="9">
+        <v>18</v>
+      </c>
+      <c r="B40" s="9">
+        <v>18</v>
+      </c>
+      <c r="C40" s="9">
+        <v>18</v>
+      </c>
+      <c r="D40" s="9">
+        <v>18</v>
+      </c>
+      <c r="E40" s="9">
+        <v>18</v>
+      </c>
+      <c r="F40" s="9">
+        <v>18</v>
+      </c>
+      <c r="G40" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" ht="17" spans="1:7">
+      <c r="A41" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" ht="17" spans="1:7">
+      <c r="A42" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="9">
+        <v>20</v>
+      </c>
+      <c r="D42" s="9">
+        <v>20</v>
+      </c>
+      <c r="E42" s="9">
+        <v>20</v>
+      </c>
+      <c r="F42" s="10">
+        <v>20</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:7">

--- a/week_plan/2021_march_weekplan.xlsx
+++ b/week_plan/2021_march_weekplan.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22240" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="11835" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="134">
   <si>
     <t>周计划</t>
   </si>
@@ -628,7 +629,7 @@
     </r>
   </si>
   <si>
-    <t>第 1 周(3.8~3.12)</t>
+    <t>第 2 周(3.8~3.12)</t>
   </si>
   <si>
     <t>文字新需求plan</t>
@@ -662,6 +663,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">7   </t>
     </r>
     <r>
@@ -676,6 +683,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">7  </t>
     </r>
     <r>
@@ -766,6 +779,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">10   </t>
     </r>
     <r>
@@ -817,6 +837,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">15   </t>
     </r>
     <r>
@@ -850,6 +876,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">17   </t>
     </r>
     <r>
@@ -883,6 +916,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">19   </t>
     </r>
     <r>
@@ -897,6 +937,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">19   </t>
     </r>
     <r>
@@ -949,6 +995,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">20   </t>
     </r>
     <r>
@@ -962,6 +1014,9 @@
     </r>
   </si>
   <si>
+    <t>第 3 周(3.15~3.19)</t>
+  </si>
+  <si>
     <t>文字功能实现</t>
   </si>
   <si>
@@ -977,7 +1032,20 @@
     <t>多层样式问题分析&amp;思路</t>
   </si>
   <si>
-    <t>多层样式问题开发</t>
+    <r>
+      <t xml:space="preserve">多层样式问题开发
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>atom3d引擎代码</t>
+    </r>
   </si>
   <si>
     <t>分享准备</t>
@@ -989,14 +1057,493 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锻炼</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锻炼</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本周计划</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动画问题解决</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文字动画文档</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多层样式问题分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>思路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动画播放不全问题</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多层样式问题开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>atom3d引擎代码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多层样式问题开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>atom3d引擎代码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">10   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>character tracking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
+      <t>的问题</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高效能人士的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个习惯</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vulkan programming guide</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">13  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面试</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Computer Architecture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">16   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分享</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kernel function demo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联系日常</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">19   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>metal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分享准备</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">20   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>filament</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">20   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其他安排</t>
+    </r>
+  </si>
+  <si>
+    <t>第 3 周(3.22~3.26)</t>
+  </si>
+  <si>
+    <t>Computer Architecture</t>
+  </si>
+  <si>
+    <t>文字路径动画小功能实现</t>
+  </si>
+  <si>
+    <t>vulkan programming language</t>
+  </si>
+  <si>
+    <t>atom3d引擎代码, 结合metal&amp;vulkan</t>
+  </si>
+  <si>
+    <t>文字路径动画: 对齐和预览显示</t>
+  </si>
+  <si>
+    <t>atom3d引擎代码</t>
+  </si>
+  <si>
+    <t>路径动画对齐问题</t>
+  </si>
+  <si>
+    <t>路径动画文字预览显示问题</t>
+  </si>
+  <si>
+    <t>引擎代码熟悉</t>
+  </si>
+  <si>
+    <t>路径动画多行问题思路</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>锻炼</t>
     </r>
   </si>
   <si>
     <r>
+      <t xml:space="preserve">7   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锻炼</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">7  </t>
     </r>
     <r>
@@ -1010,7 +1557,171 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">8   </t>
+      <t xml:space="preserve">9   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本周计划</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>路径动画文字预览显示问题</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>atom3d源码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vulkan programming guide</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>vulkan programming guide</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>atom3d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>源码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联系日常</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>路径动画对齐问题</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>computer architecture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分享</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">filament </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>源码阅读</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19   </t>
     </r>
     <r>
       <rPr>
@@ -1018,226 +1729,7 @@
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>富国论</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>本周计划</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>动画问题解决</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多层样式问题分析&amp;思路</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多层样式问题开发</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>character tracking</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的问题</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>高效能人士的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个习惯</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">13  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>面试</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">15   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Computer Architecture</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分享</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">19   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>kernel function demo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">19   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>metal</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">19   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
       <t>联系日常</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">20   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分享准备</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">20   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>filament</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">20   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>其他安排</t>
     </r>
   </si>
 </sst>
@@ -1246,12 +1738,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1286,8 +1778,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1301,15 +1831,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1324,40 +1847,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1369,25 +1863,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1409,15 +1893,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1425,6 +1903,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1446,9 +1938,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.5"/>
-      <name val="宋体-简"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1460,6 +1953,12 @@
       <sz val="11"/>
       <color theme="0" tint="-0.5"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.5"/>
+      <name val="宋体-简"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1478,7 +1977,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1490,13 +2079,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1508,19 +2097,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1532,103 +2139,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1640,25 +2151,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1724,11 +2223,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1736,23 +2241,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1772,26 +2262,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1821,157 +2311,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1993,32 +2492,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -2026,54 +2534,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2340,7 +2848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2350,14 +2858,14 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="30.4296875" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="36.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="23.1428571428571" customWidth="1"/>
+    <col min="4" max="5" width="25.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="26.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="25.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2501,13 +3009,13 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" ht="34" spans="1:7">
-      <c r="A19" s="7" t="s">
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" ht="43.5" spans="1:7">
+      <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2605,422 +3113,422 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" ht="17" spans="1:7">
-      <c r="A29" s="9">
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="12">
         <v>7</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" ht="17" spans="1:7">
-      <c r="A30" s="9">
+    <row r="30" spans="1:7">
+      <c r="A30" s="12">
         <v>8</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="12">
         <v>8</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="12">
         <v>8</v>
       </c>
     </row>
-    <row r="31" ht="17" spans="1:7">
-      <c r="A31" s="9">
+    <row r="31" spans="1:7">
+      <c r="A31" s="12">
         <v>9</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="12">
         <v>9</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="12">
         <v>9</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="12">
         <v>9</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="12">
         <v>9</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="12">
         <v>9</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" ht="34" spans="1:7">
-      <c r="A32" s="11" t="s">
+    <row r="32" ht="30" spans="1:7">
+      <c r="A32" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="9">
+      <c r="A33" s="12">
         <v>11</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="12">
         <v>11</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="12">
         <v>11</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="12">
         <v>11</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="12">
         <v>11</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="12">
         <v>11</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="12">
         <v>11</v>
       </c>
     </row>
-    <row r="34" ht="17" spans="1:7">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:7">
+      <c r="A34" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" ht="17" spans="1:7">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:7">
+      <c r="A35" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="12">
         <v>13</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="12">
         <v>13</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="12">
         <v>13</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="12">
         <v>13</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="12">
         <v>13</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="12">
         <v>13</v>
       </c>
     </row>
-    <row r="36" ht="17" spans="1:7">
-      <c r="A36" s="9">
+    <row r="36" spans="1:7">
+      <c r="A36" s="12">
         <v>14</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="12">
         <v>14</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="12">
         <v>14</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="12">
         <v>14</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="12">
         <v>14</v>
       </c>
     </row>
-    <row r="37" ht="17" spans="1:7">
-      <c r="A37" s="9">
+    <row r="37" spans="1:7">
+      <c r="A37" s="12">
         <v>15</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="12">
         <v>15</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="12">
         <v>15</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="12">
         <v>15</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="12">
         <v>15</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" ht="17" spans="1:7">
-      <c r="A38" s="9" t="s">
+    <row r="38" spans="1:7">
+      <c r="A38" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="12">
         <v>16</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="12">
         <v>16</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="12">
         <v>16</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="12">
         <v>16</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="12">
         <v>16</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="9">
+      <c r="A39" s="12">
         <v>17</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="12">
         <v>17</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="12">
         <v>17</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="12">
         <v>17</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="12">
         <v>17</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="12">
         <v>17</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="9">
+      <c r="A40" s="12">
         <v>18</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="12">
         <v>18</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="12">
         <v>18</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="12">
         <v>18</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="12">
         <v>18</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="12">
         <v>18</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="41" ht="17" spans="1:7">
-      <c r="A41" s="9" t="s">
+    <row r="41" spans="1:7">
+      <c r="A41" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="12">
         <v>19</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" ht="17" spans="1:7">
-      <c r="A42" s="9">
+    <row r="42" spans="1:7">
+      <c r="A42" s="12">
         <v>20</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="12">
         <v>20</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="12">
         <v>20</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="12">
         <v>20</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="9">
+      <c r="A43" s="12">
         <v>21</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="12">
         <v>21</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="12">
         <v>21</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="12">
         <v>21</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="12">
         <v>21</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="12">
         <v>21</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="70" spans="4:6">
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
     </row>
     <row r="71" spans="4:6">
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
     </row>
     <row r="72" spans="4:6">
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
     </row>
     <row r="73" spans="4:6">
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
     </row>
     <row r="74" spans="4:6">
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
     </row>
     <row r="75" spans="4:6">
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
     </row>
     <row r="76" spans="4:6">
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
     </row>
     <row r="77" spans="4:6">
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
     </row>
     <row r="78" spans="4:6">
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
     </row>
     <row r="79" spans="4:6">
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
     </row>
     <row r="80" spans="4:6">
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
     </row>
     <row r="81" spans="4:6">
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
     </row>
     <row r="82" spans="4:6">
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
     </row>
     <row r="83" spans="4:6">
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3035,23 +3543,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G43"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="29.546875" customWidth="1"/>
-    <col min="2" max="2" width="33.4375" customWidth="1"/>
-    <col min="3" max="3" width="23.0625" customWidth="1"/>
-    <col min="4" max="4" width="23.8125" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
-    <col min="6" max="6" width="22.6875" customWidth="1"/>
-    <col min="7" max="7" width="21.6875" customWidth="1"/>
+    <col min="1" max="1" width="29.5428571428571" customWidth="1"/>
+    <col min="2" max="2" width="33.4380952380952" customWidth="1"/>
+    <col min="3" max="3" width="23.0666666666667" customWidth="1"/>
+    <col min="4" max="4" width="23.8095238095238" customWidth="1"/>
+    <col min="5" max="5" width="19.6285714285714" customWidth="1"/>
+    <col min="6" max="6" width="22.6857142857143" customWidth="1"/>
+    <col min="7" max="7" width="21.6857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3199,13 +3707,13 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" ht="17" spans="1:7">
-      <c r="A19" s="7" t="s">
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -3217,10 +3725,10 @@
       <c r="E19" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="16" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3307,350 +3815,350 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" ht="17" spans="1:7">
-      <c r="A29" s="9">
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="12">
         <v>7</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" ht="17" spans="1:7">
-      <c r="A30" s="9">
+    <row r="30" spans="1:7">
+      <c r="A30" s="12">
         <v>8</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="12">
         <v>8</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="12">
         <v>8</v>
       </c>
     </row>
-    <row r="31" ht="17" spans="1:7">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="12">
         <v>9</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="12">
         <v>9</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="32" ht="17" spans="1:7">
-      <c r="A32" s="11">
+    <row r="32" ht="28.5" spans="1:7">
+      <c r="A32" s="15">
         <v>10</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="14">
         <v>10</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="12">
         <v>10</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="15">
         <v>10</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="13">
         <v>10</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="9">
+      <c r="A33" s="12">
         <v>11</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="12">
         <v>11</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="12">
         <v>11</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="12">
         <v>11</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="12">
         <v>11</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="12">
         <v>11</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="12">
         <v>11</v>
       </c>
     </row>
-    <row r="34" ht="17" spans="1:7">
-      <c r="A34" s="9">
+    <row r="34" spans="1:7">
+      <c r="A34" s="12">
         <v>12</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="12">
         <v>12</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="12">
         <v>12</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="13">
         <v>12</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="12">
         <v>12</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="9">
+      <c r="A35" s="12">
         <v>13</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="12">
         <v>13</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="12">
         <v>13</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="12">
         <v>13</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="12">
         <v>13</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="12">
         <v>13</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="12">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="9">
+      <c r="A36" s="12">
         <v>14</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="12">
         <v>14</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="12">
         <v>14</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="13">
         <v>14</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="12">
         <v>14</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="12">
         <v>14</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="12">
         <v>14</v>
       </c>
     </row>
-    <row r="37" ht="17" spans="1:7">
-      <c r="A37" s="9">
+    <row r="37" spans="1:7">
+      <c r="A37" s="12">
         <v>15</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="12">
         <v>15</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="12">
         <v>15</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="12">
         <v>15</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="12">
         <v>15</v>
       </c>
     </row>
-    <row r="38" ht="17" spans="1:7">
-      <c r="A38" s="9">
+    <row r="38" spans="1:7">
+      <c r="A38" s="12">
         <v>16</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="12">
         <v>16</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="12">
         <v>16</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="12">
         <v>16</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="12">
         <v>16</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="39" ht="17" spans="1:7">
-      <c r="A39" s="9">
+    <row r="39" spans="1:7">
+      <c r="A39" s="12">
         <v>17</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="12">
         <v>17</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="12">
         <v>17</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="12">
         <v>17</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="12">
         <v>17</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="9">
+      <c r="A40" s="12">
         <v>18</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="12">
         <v>18</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="12">
         <v>18</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="12">
         <v>18</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="12">
         <v>18</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="12">
         <v>18</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="41" ht="17" spans="1:7">
-      <c r="A41" s="10" t="s">
+    <row r="41" spans="1:7">
+      <c r="A41" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" ht="17" spans="1:7">
-      <c r="A42" s="9" t="s">
+    <row r="42" spans="1:7">
+      <c r="A42" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="12">
         <v>20</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="12">
         <v>20</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="12">
         <v>20</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="13">
         <v>20</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="9">
+      <c r="A43" s="12">
         <v>21</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="12">
         <v>21</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="12">
         <v>21</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="12">
         <v>21</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="12">
         <v>21</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="12">
         <v>21</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="12">
         <v>21</v>
       </c>
     </row>
@@ -3666,23 +4174,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="25.1328125" customWidth="1"/>
-    <col min="2" max="2" width="33.4375" customWidth="1"/>
-    <col min="3" max="3" width="23.0625" customWidth="1"/>
-    <col min="4" max="4" width="16.65625" customWidth="1"/>
-    <col min="5" max="5" width="17.0546875" customWidth="1"/>
-    <col min="6" max="6" width="22.53125" customWidth="1"/>
-    <col min="7" max="7" width="22.6875" customWidth="1"/>
+    <col min="1" max="1" width="25.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="3" width="28.4285714285714" customWidth="1"/>
+    <col min="4" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="30.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="26.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3691,7 +4198,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3713,7 +4220,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3762,7 +4269,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -3825,34 +4332,34 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" ht="17" spans="1:7">
-      <c r="A19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" ht="30" spans="1:7">
+      <c r="A19" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="14" t="s">
+      <c r="D19" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3933,350 +4440,350 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" ht="17" spans="1:7">
-      <c r="A29" s="9">
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="12">
         <v>7</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" s="10" t="s">
+      <c r="B29" s="13" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="30" ht="17" spans="1:7">
-      <c r="A30" s="9">
+      <c r="C29" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="12">
         <v>8</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="12">
         <v>8</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="12">
         <v>8</v>
       </c>
     </row>
-    <row r="31" ht="17" spans="1:7">
-      <c r="A31" s="9" t="s">
+    <row r="31" ht="30" spans="1:7">
+      <c r="A31" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F31" s="9">
+      <c r="E31" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="12">
         <v>9</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="32" ht="34" spans="1:7">
-      <c r="A32" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="12">
+    <row r="32" ht="28.5" spans="1:7">
+      <c r="A32" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="14">
         <v>10</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="12">
         <v>10</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="15">
         <v>10</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="13">
         <v>10</v>
       </c>
-      <c r="F32" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>96</v>
+      <c r="F32" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="9">
+      <c r="A33" s="12">
         <v>11</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="12">
         <v>11</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="12">
         <v>11</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="12">
         <v>11</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="12">
         <v>11</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="12">
         <v>11</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="12">
         <v>11</v>
       </c>
     </row>
-    <row r="34" ht="17" spans="1:7">
-      <c r="A34" s="9">
+    <row r="34" spans="1:7">
+      <c r="A34" s="12">
         <v>12</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="12">
         <v>12</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="12">
         <v>12</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="13">
         <v>12</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="12">
         <v>12</v>
       </c>
-      <c r="G34" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" ht="17" spans="1:7">
-      <c r="A35" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35" s="9">
+      <c r="G34" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="12">
         <v>13</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="12">
         <v>13</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="12">
         <v>13</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="12">
         <v>13</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="12">
         <v>13</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="12">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="9">
+      <c r="A36" s="12">
         <v>14</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="12">
         <v>14</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="12">
         <v>14</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="13">
         <v>14</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="12">
         <v>14</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="12">
         <v>14</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="12">
         <v>14</v>
       </c>
     </row>
-    <row r="37" ht="17" spans="1:7">
-      <c r="A37" s="9">
+    <row r="37" spans="1:7">
+      <c r="A37" s="12">
         <v>15</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="12">
         <v>15</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="12">
         <v>15</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="12">
         <v>15</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="12">
         <v>15</v>
       </c>
-      <c r="F37" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G37" s="9">
+      <c r="F37" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="12">
         <v>15</v>
       </c>
     </row>
-    <row r="38" ht="17" spans="1:7">
-      <c r="A38" s="9">
+    <row r="38" spans="1:7">
+      <c r="A38" s="12">
         <v>16</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="9">
+      <c r="B38" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="12">
         <v>16</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="12">
         <v>16</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="12">
         <v>16</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="12">
         <v>16</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="9">
+      <c r="A39" s="12">
         <v>17</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="12">
         <v>17</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="12">
         <v>17</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="12">
         <v>17</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="12">
         <v>17</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="12">
         <v>17</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="9">
+      <c r="A40" s="12">
         <v>18</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="12">
         <v>18</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="12">
         <v>18</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="12">
         <v>18</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="12">
         <v>18</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="12">
         <v>18</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="41" ht="17" spans="1:7">
-      <c r="A41" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" s="9" t="s">
+    <row r="41" spans="1:7">
+      <c r="A41" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="D41" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="E41" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" ht="17" spans="1:7">
-      <c r="A42" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" s="9" t="s">
+      <c r="F41" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="9">
+      <c r="G41" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="12">
         <v>20</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="12">
         <v>20</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="12">
         <v>20</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="13">
         <v>20</v>
       </c>
-      <c r="G42" s="10" t="s">
-        <v>105</v>
+      <c r="G42" s="13" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="9">
+      <c r="A43" s="12">
         <v>21</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="12">
         <v>21</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="12">
         <v>21</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="12">
         <v>21</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="12">
         <v>21</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="12">
         <v>21</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="12">
         <v>21</v>
       </c>
     </row>
@@ -4289,4 +4796,631 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="22.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="37.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="22.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="13.5714285714286" customWidth="1"/>
+    <col min="6" max="7" width="28.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" customFormat="1" spans="1:3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" customFormat="1" spans="1:3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" customFormat="1" spans="1:3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" customFormat="1" spans="1:3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" customFormat="1"/>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" ht="27" spans="1:7">
+      <c r="A19" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="12">
+        <v>8</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="12">
+        <v>8</v>
+      </c>
+      <c r="G30" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="14">
+        <v>9</v>
+      </c>
+      <c r="E31" s="14">
+        <v>9</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="14">
+        <v>10</v>
+      </c>
+      <c r="C32" s="12">
+        <v>10</v>
+      </c>
+      <c r="D32" s="15">
+        <v>10</v>
+      </c>
+      <c r="E32" s="13">
+        <v>10</v>
+      </c>
+      <c r="F32" s="14">
+        <v>10</v>
+      </c>
+      <c r="G32" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="12">
+        <v>11</v>
+      </c>
+      <c r="B33" s="12">
+        <v>11</v>
+      </c>
+      <c r="C33" s="12">
+        <v>11</v>
+      </c>
+      <c r="D33" s="12">
+        <v>11</v>
+      </c>
+      <c r="E33" s="12">
+        <v>11</v>
+      </c>
+      <c r="F33" s="12">
+        <v>11</v>
+      </c>
+      <c r="G33" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="12">
+        <v>12</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" s="12">
+        <v>12</v>
+      </c>
+      <c r="G34" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="12">
+        <v>13</v>
+      </c>
+      <c r="C35" s="12">
+        <v>13</v>
+      </c>
+      <c r="D35" s="12">
+        <v>13</v>
+      </c>
+      <c r="E35" s="12">
+        <v>13</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="12">
+        <v>14</v>
+      </c>
+      <c r="B36" s="12">
+        <v>14</v>
+      </c>
+      <c r="C36" s="12">
+        <v>14</v>
+      </c>
+      <c r="D36" s="13">
+        <v>14</v>
+      </c>
+      <c r="E36" s="12">
+        <v>14</v>
+      </c>
+      <c r="F36" s="12">
+        <v>14</v>
+      </c>
+      <c r="G36" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="12">
+        <v>15</v>
+      </c>
+      <c r="B37" s="12">
+        <v>15</v>
+      </c>
+      <c r="C37" s="12">
+        <v>15</v>
+      </c>
+      <c r="D37" s="12">
+        <v>15</v>
+      </c>
+      <c r="E37" s="12">
+        <v>15</v>
+      </c>
+      <c r="F37" s="13">
+        <v>15</v>
+      </c>
+      <c r="G37" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="12">
+        <v>16</v>
+      </c>
+      <c r="B38" s="12">
+        <v>16</v>
+      </c>
+      <c r="C38" s="12">
+        <v>16</v>
+      </c>
+      <c r="D38" s="12">
+        <v>16</v>
+      </c>
+      <c r="E38" s="12">
+        <v>16</v>
+      </c>
+      <c r="F38" s="12">
+        <v>16</v>
+      </c>
+      <c r="G38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="12">
+        <v>17</v>
+      </c>
+      <c r="B39" s="12">
+        <v>17</v>
+      </c>
+      <c r="C39" s="12">
+        <v>17</v>
+      </c>
+      <c r="D39" s="12">
+        <v>17</v>
+      </c>
+      <c r="E39" s="12">
+        <v>17</v>
+      </c>
+      <c r="F39" s="12">
+        <v>17</v>
+      </c>
+      <c r="G39" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="12">
+        <v>18</v>
+      </c>
+      <c r="B40" s="12">
+        <v>18</v>
+      </c>
+      <c r="C40" s="12">
+        <v>18</v>
+      </c>
+      <c r="D40" s="12">
+        <v>18</v>
+      </c>
+      <c r="E40" s="12">
+        <v>18</v>
+      </c>
+      <c r="F40" s="12">
+        <v>18</v>
+      </c>
+      <c r="G40" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="12">
+        <v>20</v>
+      </c>
+      <c r="B42" s="12">
+        <v>20</v>
+      </c>
+      <c r="C42" s="12">
+        <v>20</v>
+      </c>
+      <c r="D42" s="12">
+        <v>20</v>
+      </c>
+      <c r="E42" s="12">
+        <v>20</v>
+      </c>
+      <c r="F42" s="13">
+        <v>20</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="12">
+        <v>21</v>
+      </c>
+      <c r="B43" s="12">
+        <v>21</v>
+      </c>
+      <c r="C43" s="12">
+        <v>21</v>
+      </c>
+      <c r="D43" s="12">
+        <v>21</v>
+      </c>
+      <c r="E43" s="12">
+        <v>21</v>
+      </c>
+      <c r="F43" s="12">
+        <v>21</v>
+      </c>
+      <c r="G43" s="12">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A28:G28"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/week_plan/2021_march_weekplan.xlsx
+++ b/week_plan/2021_march_weekplan.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11835" activeTab="3"/>
+    <workbookView windowHeight="22240" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138">
   <si>
     <t>周计划</t>
   </si>
@@ -784,7 +785,6 @@
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">10   </t>
     </r>
@@ -881,7 +881,6 @@
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">17   </t>
     </r>
@@ -921,7 +920,6 @@
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">19   </t>
     </r>
@@ -1033,6 +1031,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">多层样式问题开发
 </t>
     </r>
@@ -1042,7 +1046,6 @@
         <color theme="9"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>atom3d引擎代码</t>
     </r>
@@ -1052,6 +1055,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">7   </t>
     </r>
     <r>
@@ -1066,7 +1075,69 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">7  </t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本周计划</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动画问题解决</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文字动画文档</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9   </t>
     </r>
     <r>
       <rPr>
@@ -1075,47 +1146,110 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>锻炼</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+      <t>多层样式问题分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>思路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动画播放不全问题</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">9   </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>本周计划</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多层样式问题开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>atom3d引擎代码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">9   </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>动画问题解决</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+      <t>多层样式问题开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
      </t>
@@ -1126,164 +1260,162 @@
         <color theme="9"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>文字动画文档</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9   </t>
+      </rPr>
+      <t>atom3d引擎代码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">10   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>character tracking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的问题</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>vulkan programming guide</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">13  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面试</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">16   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分享</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">19   </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="0" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kernel function demo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">19   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>多层样式问题分析</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.5"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>思路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.5"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>动画播放不全问题</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多层样式问题开发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.5"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>atom3d引擎代码</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多层样式问题开发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.5"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>atom3d引擎代码</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">10   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>character tracking</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的问题</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10   </t>
+      <t>联系日常</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">19   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>metal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">20   </t>
     </r>
     <r>
       <rPr>
@@ -1292,30 +1424,173 @@
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>高效能人士的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.5"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.5"/>
+      <t>分享准备</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">20   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>filament</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">20   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>个习惯</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">12 </t>
+      <t>其他安排</t>
+    </r>
+  </si>
+  <si>
+    <t>第 3 周(3.22~3.26)</t>
+  </si>
+  <si>
+    <t>Computer Architecture</t>
+  </si>
+  <si>
+    <t>文字路径动画小功能实现</t>
+  </si>
+  <si>
+    <t>vulkan programming language</t>
+  </si>
+  <si>
+    <t>atom3d引擎代码, 结合metal&amp;vulkan</t>
+  </si>
+  <si>
+    <t>文字路径动画: 对齐和预览显示</t>
+  </si>
+  <si>
+    <t>atom3d引擎代码</t>
+  </si>
+  <si>
+    <t>路径动画对齐问题</t>
+  </si>
+  <si>
+    <t>路径动画文字预览显示问题</t>
+  </si>
+  <si>
+    <t>引擎代码熟悉</t>
+  </si>
+  <si>
+    <t>路径动画多行问题</t>
+  </si>
+  <si>
+    <t>OKR</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">7  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锻炼</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">7   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.35"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锻炼</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锻炼</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本周计划</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.35"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">路径动画文字预览显示问题
+    </t>
     </r>
     <r>
       <rPr>
@@ -1323,7 +1598,40 @@
         <color theme="9"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
+      </rPr>
+      <t>SPIR-V 相关了解</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对齐和显示问题</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.35"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
       </rPr>
       <t>vulkan programming guide</t>
     </r>
@@ -1335,48 +1643,141 @@
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>atom3d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>源码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">10  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Q1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OKR 复盘 + Q2 OKR设定</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">12   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联系日常</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">13  </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>面试</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">15   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.5"/>
+        <color theme="0" tint="-0.35"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>Computer Architecture</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">16   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
+      <t xml:space="preserve">路径动画对齐问题
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SPIR-V 相关了解</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.35"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>computer architecture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">19   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>分享</t>
@@ -1384,281 +1785,200 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">19   </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="0" tint="-0.5"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>kernel function demo</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <color theme="0" tint="-0.35"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">filament </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.35"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>源码阅读</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">19   </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分享</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游泳</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>vulkan programming guide</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>vulkan programming guide</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Q1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">OKR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> + Q2 OKR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设定</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.35"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>联系日常</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">19   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>metal</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">20   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.5"/>
+      <t xml:space="preserve">路径动画对齐问题
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">SPIR-V </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>分享准备</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">20   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>filament</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">20   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>其他安排</t>
-    </r>
-  </si>
-  <si>
-    <t>第 3 周(3.22~3.26)</t>
-  </si>
-  <si>
-    <t>Computer Architecture</t>
-  </si>
-  <si>
-    <t>文字路径动画小功能实现</t>
-  </si>
-  <si>
-    <t>vulkan programming language</t>
-  </si>
-  <si>
-    <t>atom3d引擎代码, 结合metal&amp;vulkan</t>
-  </si>
-  <si>
-    <t>文字路径动画: 对齐和预览显示</t>
-  </si>
-  <si>
-    <t>atom3d引擎代码</t>
-  </si>
-  <si>
-    <t>路径动画对齐问题</t>
-  </si>
-  <si>
-    <t>路径动画文字预览显示问题</t>
-  </si>
-  <si>
-    <t>引擎代码熟悉</t>
-  </si>
-  <si>
-    <t>路径动画多行问题思路</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>锻炼</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>锻炼</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>锻炼</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>本周计划</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>路径动画文字预览显示问题</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>atom3d源码</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>vulkan programming guide</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>vulkan programming guide</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>atom3d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>源码</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">12   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>联系日常</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t>相关了解</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">13  </t>
     </r>
     <r>
@@ -1666,70 +1986,8 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>路径动画对齐问题</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">13  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>computer architecture</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">19   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分享</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">19   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">filament </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>源码阅读</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">19   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>联系日常</t>
     </r>
   </si>
 </sst>
@@ -1738,12 +1996,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1787,13 +2045,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1801,15 +2052,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1817,9 +2083,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1832,39 +2098,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1894,8 +2136,31 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1909,20 +2174,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.35"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1933,7 +2202,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="宋体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.35"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体-简"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1946,13 +2234,13 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.5"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.5"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1977,7 +2265,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1989,7 +2343,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2001,79 +2415,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2085,79 +2445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2223,17 +2511,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2243,30 +2534,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2301,6 +2568,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2312,11 +2594,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2325,148 +2613,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2492,32 +2780,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2534,54 +2822,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2848,7 +3136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2858,14 +3146,14 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="30.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="36.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="23.1428571428571" customWidth="1"/>
-    <col min="4" max="5" width="25.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="26.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="25.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="30.4296875" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3009,13 +3297,13 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" ht="43.5" spans="1:7">
-      <c r="A19" s="8" t="s">
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" ht="34" spans="1:7">
+      <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -3113,350 +3401,350 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="12">
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" ht="17" spans="1:7">
+      <c r="A29" s="10">
         <v>7</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="12">
+    <row r="30" ht="17" spans="1:7">
+      <c r="A30" s="10">
         <v>8</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="10">
         <v>8</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="12">
+    <row r="31" ht="17" spans="1:7">
+      <c r="A31" s="10">
         <v>9</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="10">
         <v>9</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="10">
         <v>9</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="10">
         <v>9</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="10">
         <v>9</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="10">
         <v>9</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" ht="30" spans="1:7">
-      <c r="A32" s="15" t="s">
+    <row r="32" ht="34" spans="1:7">
+      <c r="A32" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="12">
+      <c r="A33" s="10">
         <v>11</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="10">
         <v>11</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="10">
         <v>11</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="10">
         <v>11</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="10">
         <v>11</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="10">
         <v>11</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="10">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="12" t="s">
+    <row r="34" ht="17" spans="1:7">
+      <c r="A34" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="12" t="s">
+    <row r="35" ht="17" spans="1:7">
+      <c r="A35" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="10">
         <v>13</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="10">
         <v>13</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="10">
         <v>13</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="10">
         <v>13</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="10">
         <v>13</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="10">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="12">
+    <row r="36" ht="17" spans="1:7">
+      <c r="A36" s="10">
         <v>14</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="10">
         <v>14</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="10">
         <v>14</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="10">
         <v>14</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="10">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="12">
+    <row r="37" ht="17" spans="1:7">
+      <c r="A37" s="10">
         <v>15</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="10">
         <v>15</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="10">
         <v>15</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="10">
         <v>15</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="10">
         <v>15</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="G37" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="12" t="s">
+    <row r="38" ht="17" spans="1:7">
+      <c r="A38" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="10">
         <v>16</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="10">
         <v>16</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="10">
         <v>16</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="10">
         <v>16</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="10">
         <v>16</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="12">
+      <c r="A39" s="10">
         <v>17</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="10">
         <v>17</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="10">
         <v>17</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="10">
         <v>17</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="10">
         <v>17</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="10">
         <v>17</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="12">
+      <c r="A40" s="10">
         <v>18</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="10">
         <v>18</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="10">
         <v>18</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="10">
         <v>18</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="10">
         <v>18</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="10">
         <v>18</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="10">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="12" t="s">
+    <row r="41" ht="17" spans="1:7">
+      <c r="A41" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="10">
         <v>19</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G41" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="12">
+    <row r="42" ht="17" spans="1:7">
+      <c r="A42" s="10">
         <v>20</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="10">
         <v>20</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="10">
         <v>20</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="10">
         <v>20</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="G42" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="12">
+      <c r="A43" s="10">
         <v>21</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="10">
         <v>21</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="10">
         <v>21</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="10">
         <v>21</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="10">
         <v>21</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="10">
         <v>21</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="10">
         <v>21</v>
       </c>
     </row>
@@ -3543,7 +3831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G43"/>
   <sheetViews>
@@ -3551,15 +3839,15 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="29.5428571428571" customWidth="1"/>
-    <col min="2" max="2" width="33.4380952380952" customWidth="1"/>
-    <col min="3" max="3" width="23.0666666666667" customWidth="1"/>
-    <col min="4" max="4" width="23.8095238095238" customWidth="1"/>
-    <col min="5" max="5" width="19.6285714285714" customWidth="1"/>
-    <col min="6" max="6" width="22.6857142857143" customWidth="1"/>
-    <col min="7" max="7" width="21.6857142857143" customWidth="1"/>
+    <col min="1" max="1" width="29.5390625" customWidth="1"/>
+    <col min="2" max="2" width="33.4375" customWidth="1"/>
+    <col min="3" max="3" width="23.0703125" customWidth="1"/>
+    <col min="4" max="4" width="23.8125" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="22.6875" customWidth="1"/>
+    <col min="7" max="7" width="21.6875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3707,13 +3995,13 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="8" t="s">
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" ht="17" spans="1:7">
+      <c r="A19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -3815,350 +4103,350 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="12">
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" ht="17" spans="1:7">
+      <c r="A29" s="10">
         <v>7</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="12">
+    <row r="30" ht="17" spans="1:7">
+      <c r="A30" s="10">
         <v>8</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="10">
         <v>8</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="12" t="s">
+    <row r="31" ht="17" spans="1:7">
+      <c r="A31" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="10">
         <v>9</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="10">
         <v>9</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="32" ht="28.5" spans="1:7">
-      <c r="A32" s="15">
+    <row r="32" ht="17" spans="1:7">
+      <c r="A32" s="13">
         <v>10</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="12">
         <v>10</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="10">
         <v>10</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="13">
         <v>10</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="11">
         <v>10</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="12">
+      <c r="A33" s="10">
         <v>11</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="10">
         <v>11</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="10">
         <v>11</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="10">
         <v>11</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="10">
         <v>11</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="10">
         <v>11</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="10">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="12">
+    <row r="34" ht="17" spans="1:7">
+      <c r="A34" s="10">
         <v>12</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="10">
         <v>12</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="10">
         <v>12</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="11">
         <v>12</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="10">
         <v>12</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="12">
+      <c r="A35" s="10">
         <v>13</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="10">
         <v>13</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="10">
         <v>13</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="10">
         <v>13</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="10">
         <v>13</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="10">
         <v>13</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="10">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="12">
+      <c r="A36" s="10">
         <v>14</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="10">
         <v>14</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="10">
         <v>14</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="11">
         <v>14</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="10">
         <v>14</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="10">
         <v>14</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="10">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="12">
+    <row r="37" ht="17" spans="1:7">
+      <c r="A37" s="10">
         <v>15</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="10">
         <v>15</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="10">
         <v>15</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="10">
         <v>15</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="12">
+    <row r="38" ht="17" spans="1:7">
+      <c r="A38" s="10">
         <v>16</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="10">
         <v>16</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="10">
         <v>16</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="10">
         <v>16</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="10">
         <v>16</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="10">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="12">
+    <row r="39" ht="17" spans="1:7">
+      <c r="A39" s="10">
         <v>17</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="10">
         <v>17</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="10">
         <v>17</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="10">
         <v>17</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="10">
         <v>17</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="12">
+      <c r="A40" s="10">
         <v>18</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="10">
         <v>18</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="10">
         <v>18</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="10">
         <v>18</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="10">
         <v>18</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="10">
         <v>18</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="10">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="13" t="s">
+    <row r="41" ht="17" spans="1:7">
+      <c r="A41" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="12" t="s">
+    <row r="42" ht="17" spans="1:7">
+      <c r="A42" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="10">
         <v>20</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="10">
         <v>20</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="10">
         <v>20</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="11">
         <v>20</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="12">
+      <c r="A43" s="10">
         <v>21</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="10">
         <v>21</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="10">
         <v>21</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="10">
         <v>21</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="10">
         <v>21</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="10">
         <v>21</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="10">
         <v>21</v>
       </c>
     </row>
@@ -4174,7 +4462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G43"/>
   <sheetViews>
@@ -4182,14 +4470,14 @@
       <selection activeCell="B27" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="25.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="25.4296875" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="28.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="28.4296875" customWidth="1"/>
     <col min="4" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="30.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="26.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="30.859375" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4332,13 +4620,13 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" ht="30" spans="1:7">
-      <c r="A19" s="8" t="s">
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" ht="34" spans="1:7">
+      <c r="A19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C19" s="16" t="s">
@@ -4350,10 +4638,10 @@
       <c r="E19" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4440,350 +4728,350 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="12">
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" ht="17" spans="1:7">
+      <c r="A29" s="10">
         <v>7</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" ht="17" spans="1:7">
+      <c r="A30" s="10">
+        <v>8</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="10">
+        <v>8</v>
+      </c>
+      <c r="G30" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" ht="34" spans="1:7">
+      <c r="A31" s="10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="12">
-        <v>8</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="12">
-        <v>8</v>
-      </c>
-      <c r="G30" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" ht="30" spans="1:7">
-      <c r="A31" s="12" t="s">
+      <c r="B31" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="C31" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="D31" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="E31" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="F31" s="10">
+        <v>9</v>
+      </c>
+      <c r="G31" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" ht="17" spans="1:7">
+      <c r="A32" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F31" s="12">
-        <v>9</v>
-      </c>
-      <c r="G31" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" ht="28.5" spans="1:7">
-      <c r="A32" s="15" t="s">
+      <c r="B32" s="12">
+        <v>10</v>
+      </c>
+      <c r="C32" s="10">
+        <v>10</v>
+      </c>
+      <c r="D32" s="13">
+        <v>10</v>
+      </c>
+      <c r="E32" s="11">
+        <v>10</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="10">
+        <v>11</v>
+      </c>
+      <c r="B33" s="10">
+        <v>11</v>
+      </c>
+      <c r="C33" s="10">
+        <v>11</v>
+      </c>
+      <c r="D33" s="10">
+        <v>11</v>
+      </c>
+      <c r="E33" s="10">
+        <v>11</v>
+      </c>
+      <c r="F33" s="10">
+        <v>11</v>
+      </c>
+      <c r="G33" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" ht="17" spans="1:7">
+      <c r="A34" s="10">
+        <v>12</v>
+      </c>
+      <c r="B34" s="10">
+        <v>12</v>
+      </c>
+      <c r="C34" s="10">
+        <v>12</v>
+      </c>
+      <c r="D34" s="11">
+        <v>12</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="10">
+        <v>12</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="14">
-        <v>10</v>
-      </c>
-      <c r="C32" s="12">
-        <v>10</v>
-      </c>
-      <c r="D32" s="15">
-        <v>10</v>
-      </c>
-      <c r="E32" s="13">
-        <v>10</v>
-      </c>
-      <c r="F32" s="14" t="s">
+    </row>
+    <row r="35" ht="17" spans="1:7">
+      <c r="A35" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G32" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="12">
-        <v>11</v>
-      </c>
-      <c r="B33" s="12">
-        <v>11</v>
-      </c>
-      <c r="C33" s="12">
-        <v>11</v>
-      </c>
-      <c r="D33" s="12">
-        <v>11</v>
-      </c>
-      <c r="E33" s="12">
-        <v>11</v>
-      </c>
-      <c r="F33" s="12">
-        <v>11</v>
-      </c>
-      <c r="G33" s="12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="12">
-        <v>12</v>
-      </c>
-      <c r="B34" s="12">
-        <v>12</v>
-      </c>
-      <c r="C34" s="12">
-        <v>12</v>
-      </c>
-      <c r="D34" s="13">
-        <v>12</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34" s="12">
-        <v>12</v>
-      </c>
-      <c r="G34" s="12" t="s">
+      <c r="B35" s="10">
+        <v>13</v>
+      </c>
+      <c r="C35" s="10">
+        <v>13</v>
+      </c>
+      <c r="D35" s="10">
+        <v>13</v>
+      </c>
+      <c r="E35" s="10">
+        <v>13</v>
+      </c>
+      <c r="F35" s="10">
+        <v>13</v>
+      </c>
+      <c r="G35" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="10">
+        <v>14</v>
+      </c>
+      <c r="B36" s="10">
+        <v>14</v>
+      </c>
+      <c r="C36" s="10">
+        <v>14</v>
+      </c>
+      <c r="D36" s="11">
+        <v>14</v>
+      </c>
+      <c r="E36" s="10">
+        <v>14</v>
+      </c>
+      <c r="F36" s="10">
+        <v>14</v>
+      </c>
+      <c r="G36" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" ht="17" spans="1:7">
+      <c r="A37" s="10">
+        <v>15</v>
+      </c>
+      <c r="B37" s="10">
+        <v>15</v>
+      </c>
+      <c r="C37" s="10">
+        <v>15</v>
+      </c>
+      <c r="D37" s="10">
+        <v>15</v>
+      </c>
+      <c r="E37" s="10">
+        <v>15</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" ht="17" spans="1:7">
+      <c r="A38" s="10">
+        <v>16</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="12" t="s">
+      <c r="C38" s="10">
+        <v>16</v>
+      </c>
+      <c r="D38" s="10">
+        <v>16</v>
+      </c>
+      <c r="E38" s="10">
+        <v>16</v>
+      </c>
+      <c r="F38" s="10">
+        <v>16</v>
+      </c>
+      <c r="G38" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="10">
+        <v>17</v>
+      </c>
+      <c r="B39" s="10">
+        <v>17</v>
+      </c>
+      <c r="C39" s="10">
+        <v>17</v>
+      </c>
+      <c r="D39" s="10">
+        <v>17</v>
+      </c>
+      <c r="E39" s="10">
+        <v>17</v>
+      </c>
+      <c r="F39" s="10">
+        <v>17</v>
+      </c>
+      <c r="G39" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="10">
+        <v>18</v>
+      </c>
+      <c r="B40" s="10">
+        <v>18</v>
+      </c>
+      <c r="C40" s="10">
+        <v>18</v>
+      </c>
+      <c r="D40" s="10">
+        <v>18</v>
+      </c>
+      <c r="E40" s="10">
+        <v>18</v>
+      </c>
+      <c r="F40" s="10">
+        <v>18</v>
+      </c>
+      <c r="G40" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" ht="17" spans="1:7">
+      <c r="A41" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="12">
-        <v>13</v>
-      </c>
-      <c r="C35" s="12">
-        <v>13</v>
-      </c>
-      <c r="D35" s="12">
-        <v>13</v>
-      </c>
-      <c r="E35" s="12">
-        <v>13</v>
-      </c>
-      <c r="F35" s="12">
-        <v>13</v>
-      </c>
-      <c r="G35" s="12">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="12">
-        <v>14</v>
-      </c>
-      <c r="B36" s="12">
-        <v>14</v>
-      </c>
-      <c r="C36" s="12">
-        <v>14</v>
-      </c>
-      <c r="D36" s="13">
-        <v>14</v>
-      </c>
-      <c r="E36" s="12">
-        <v>14</v>
-      </c>
-      <c r="F36" s="12">
-        <v>14</v>
-      </c>
-      <c r="G36" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="12">
-        <v>15</v>
-      </c>
-      <c r="B37" s="12">
-        <v>15</v>
-      </c>
-      <c r="C37" s="12">
-        <v>15</v>
-      </c>
-      <c r="D37" s="12">
-        <v>15</v>
-      </c>
-      <c r="E37" s="12">
-        <v>15</v>
-      </c>
-      <c r="F37" s="13" t="s">
+      <c r="B41" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G37" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="12">
-        <v>16</v>
-      </c>
-      <c r="B38" s="12" t="s">
+      <c r="C41" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="12">
-        <v>16</v>
-      </c>
-      <c r="D38" s="12">
-        <v>16</v>
-      </c>
-      <c r="E38" s="12">
-        <v>16</v>
-      </c>
-      <c r="F38" s="12">
-        <v>16</v>
-      </c>
-      <c r="G38" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="12">
-        <v>17</v>
-      </c>
-      <c r="B39" s="12">
-        <v>17</v>
-      </c>
-      <c r="C39" s="12">
-        <v>17</v>
-      </c>
-      <c r="D39" s="12">
-        <v>17</v>
-      </c>
-      <c r="E39" s="12">
-        <v>17</v>
-      </c>
-      <c r="F39" s="12">
-        <v>17</v>
-      </c>
-      <c r="G39" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="12">
-        <v>18</v>
-      </c>
-      <c r="B40" s="12">
-        <v>18</v>
-      </c>
-      <c r="C40" s="12">
-        <v>18</v>
-      </c>
-      <c r="D40" s="12">
-        <v>18</v>
-      </c>
-      <c r="E40" s="12">
-        <v>18</v>
-      </c>
-      <c r="F40" s="12">
-        <v>18</v>
-      </c>
-      <c r="G40" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="13" t="s">
+      <c r="G41" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" ht="17" spans="1:7">
+      <c r="A42" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B42" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" s="12" t="s">
+      <c r="C42" s="10">
+        <v>20</v>
+      </c>
+      <c r="D42" s="10">
+        <v>20</v>
+      </c>
+      <c r="E42" s="10">
+        <v>20</v>
+      </c>
+      <c r="F42" s="11">
+        <v>20</v>
+      </c>
+      <c r="G42" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G41" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="12">
-        <v>20</v>
-      </c>
-      <c r="D42" s="12">
-        <v>20</v>
-      </c>
-      <c r="E42" s="12">
-        <v>20</v>
-      </c>
-      <c r="F42" s="13">
-        <v>20</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="12">
+      <c r="A43" s="10">
         <v>21</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="10">
         <v>21</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="10">
         <v>21</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="10">
         <v>21</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="10">
         <v>21</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="10">
         <v>21</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="10">
         <v>21</v>
       </c>
     </row>
@@ -4799,22 +5087,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="37.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="22.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="13.5714285714286" customWidth="1"/>
-    <col min="6" max="7" width="28.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="28.859375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:3">
@@ -4823,7 +5111,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:3">
@@ -4842,16 +5130,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>59</v>
@@ -4863,7 +5151,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:3">
@@ -4895,7 +5183,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -4909,7 +5197,7 @@
     <row r="12" customFormat="1" spans="1:3">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C12" s="4"/>
     </row>
@@ -4928,7 +5216,6 @@
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" customFormat="1"/>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>15</v>
@@ -4961,35 +5248,37 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" ht="27" spans="1:7">
-      <c r="A19" s="8" t="s">
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" ht="17" spans="1:7">
+      <c r="A19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" s="10" t="s">
+      <c r="E19" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -5067,350 +5356,350 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="12" t="s">
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" ht="17" spans="1:7">
+      <c r="A29" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="13" t="s">
+    </row>
+    <row r="30" ht="17" spans="1:7">
+      <c r="A30" s="10">
+        <v>8</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="10">
+        <v>8</v>
+      </c>
+      <c r="G30" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" ht="34" spans="1:7">
+      <c r="A31" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="12">
-        <v>8</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="12">
-        <v>8</v>
-      </c>
-      <c r="G30" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="12" t="s">
+      <c r="C31" s="12">
+        <v>9</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="E31" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="G31" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" ht="17" spans="1:7">
+      <c r="A32" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D31" s="14">
-        <v>9</v>
-      </c>
-      <c r="E31" s="14">
-        <v>9</v>
-      </c>
-      <c r="F31" s="12" t="s">
+      <c r="B32" s="12">
+        <v>10</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="D32" s="13">
+        <v>10</v>
+      </c>
+      <c r="E32" s="11">
+        <v>10</v>
+      </c>
+      <c r="F32" s="12">
+        <v>10</v>
+      </c>
+      <c r="G32" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="10">
+        <v>11</v>
+      </c>
+      <c r="B33" s="10">
+        <v>11</v>
+      </c>
+      <c r="C33" s="10">
+        <v>11</v>
+      </c>
+      <c r="D33" s="10">
+        <v>11</v>
+      </c>
+      <c r="E33" s="10">
+        <v>11</v>
+      </c>
+      <c r="F33" s="10">
+        <v>11</v>
+      </c>
+      <c r="G33" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" ht="17" spans="1:7">
+      <c r="A34" s="10">
+        <v>12</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="15" t="s">
+      <c r="C34" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="10">
+        <v>12</v>
+      </c>
+      <c r="G34" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="34" spans="1:7">
+      <c r="A35" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="14">
-        <v>10</v>
-      </c>
-      <c r="C32" s="12">
-        <v>10</v>
-      </c>
-      <c r="D32" s="15">
-        <v>10</v>
-      </c>
-      <c r="E32" s="13">
-        <v>10</v>
-      </c>
-      <c r="F32" s="14">
-        <v>10</v>
-      </c>
-      <c r="G32" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="12">
-        <v>11</v>
-      </c>
-      <c r="B33" s="12">
-        <v>11</v>
-      </c>
-      <c r="C33" s="12">
-        <v>11</v>
-      </c>
-      <c r="D33" s="12">
-        <v>11</v>
-      </c>
-      <c r="E33" s="12">
-        <v>11</v>
-      </c>
-      <c r="F33" s="12">
-        <v>11</v>
-      </c>
-      <c r="G33" s="12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="12">
-        <v>12</v>
-      </c>
-      <c r="B34" s="13" t="s">
+      <c r="B35" s="10">
+        <v>13</v>
+      </c>
+      <c r="C35" s="10">
+        <v>13</v>
+      </c>
+      <c r="D35" s="10">
+        <v>13</v>
+      </c>
+      <c r="E35" s="10">
+        <v>13</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F34" s="12">
-        <v>12</v>
-      </c>
-      <c r="G34" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="12" t="s">
+      <c r="G35" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="10">
+        <v>14</v>
+      </c>
+      <c r="B36" s="10">
+        <v>14</v>
+      </c>
+      <c r="C36" s="10">
+        <v>14</v>
+      </c>
+      <c r="D36" s="11">
+        <v>14</v>
+      </c>
+      <c r="E36" s="10">
+        <v>14</v>
+      </c>
+      <c r="F36" s="10">
+        <v>14</v>
+      </c>
+      <c r="G36" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="10">
+        <v>15</v>
+      </c>
+      <c r="B37" s="10">
+        <v>15</v>
+      </c>
+      <c r="C37" s="10">
+        <v>15</v>
+      </c>
+      <c r="D37" s="10">
+        <v>15</v>
+      </c>
+      <c r="E37" s="10">
+        <v>15</v>
+      </c>
+      <c r="F37" s="11">
+        <v>15</v>
+      </c>
+      <c r="G37" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="10">
+        <v>16</v>
+      </c>
+      <c r="B38" s="10">
+        <v>16</v>
+      </c>
+      <c r="C38" s="10">
+        <v>16</v>
+      </c>
+      <c r="D38" s="10">
+        <v>16</v>
+      </c>
+      <c r="E38" s="10">
+        <v>16</v>
+      </c>
+      <c r="F38" s="10">
+        <v>16</v>
+      </c>
+      <c r="G38" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="10">
+        <v>17</v>
+      </c>
+      <c r="B39" s="10">
+        <v>17</v>
+      </c>
+      <c r="C39" s="10">
+        <v>17</v>
+      </c>
+      <c r="D39" s="10">
+        <v>17</v>
+      </c>
+      <c r="E39" s="10">
+        <v>17</v>
+      </c>
+      <c r="F39" s="10">
+        <v>17</v>
+      </c>
+      <c r="G39" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="10">
+        <v>18</v>
+      </c>
+      <c r="B40" s="10">
+        <v>18</v>
+      </c>
+      <c r="C40" s="10">
+        <v>18</v>
+      </c>
+      <c r="D40" s="10">
+        <v>18</v>
+      </c>
+      <c r="E40" s="10">
+        <v>18</v>
+      </c>
+      <c r="F40" s="10">
+        <v>18</v>
+      </c>
+      <c r="G40" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" ht="17" spans="1:7">
+      <c r="A41" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="12">
-        <v>13</v>
-      </c>
-      <c r="C35" s="12">
-        <v>13</v>
-      </c>
-      <c r="D35" s="12">
-        <v>13</v>
-      </c>
-      <c r="E35" s="12">
-        <v>13</v>
-      </c>
-      <c r="F35" s="12" t="s">
+      <c r="B41" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G35" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="12">
-        <v>14</v>
-      </c>
-      <c r="B36" s="12">
-        <v>14</v>
-      </c>
-      <c r="C36" s="12">
-        <v>14</v>
-      </c>
-      <c r="D36" s="13">
-        <v>14</v>
-      </c>
-      <c r="E36" s="12">
-        <v>14</v>
-      </c>
-      <c r="F36" s="12">
-        <v>14</v>
-      </c>
-      <c r="G36" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="12">
-        <v>15</v>
-      </c>
-      <c r="B37" s="12">
-        <v>15</v>
-      </c>
-      <c r="C37" s="12">
-        <v>15</v>
-      </c>
-      <c r="D37" s="12">
-        <v>15</v>
-      </c>
-      <c r="E37" s="12">
-        <v>15</v>
-      </c>
-      <c r="F37" s="13">
-        <v>15</v>
-      </c>
-      <c r="G37" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="12">
-        <v>16</v>
-      </c>
-      <c r="B38" s="12">
-        <v>16</v>
-      </c>
-      <c r="C38" s="12">
-        <v>16</v>
-      </c>
-      <c r="D38" s="12">
-        <v>16</v>
-      </c>
-      <c r="E38" s="12">
-        <v>16</v>
-      </c>
-      <c r="F38" s="12">
-        <v>16</v>
-      </c>
-      <c r="G38" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="12">
-        <v>17</v>
-      </c>
-      <c r="B39" s="12">
-        <v>17</v>
-      </c>
-      <c r="C39" s="12">
-        <v>17</v>
-      </c>
-      <c r="D39" s="12">
-        <v>17</v>
-      </c>
-      <c r="E39" s="12">
-        <v>17</v>
-      </c>
-      <c r="F39" s="12">
-        <v>17</v>
-      </c>
-      <c r="G39" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="12">
-        <v>18</v>
-      </c>
-      <c r="B40" s="12">
-        <v>18</v>
-      </c>
-      <c r="C40" s="12">
-        <v>18</v>
-      </c>
-      <c r="D40" s="12">
-        <v>18</v>
-      </c>
-      <c r="E40" s="12">
-        <v>18</v>
-      </c>
-      <c r="F40" s="12">
-        <v>18</v>
-      </c>
-      <c r="G40" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="13" t="s">
+      <c r="C41" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="D41" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="10">
+        <v>19</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" ht="17" spans="1:7">
+      <c r="A42" s="10">
+        <v>20</v>
+      </c>
+      <c r="B42" s="10">
+        <v>20</v>
+      </c>
+      <c r="C42" s="10">
+        <v>20</v>
+      </c>
+      <c r="D42" s="10">
+        <v>20</v>
+      </c>
+      <c r="E42" s="10">
+        <v>20</v>
+      </c>
+      <c r="F42" s="11">
+        <v>20</v>
+      </c>
+      <c r="G42" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G41" s="13" t="s">
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="10">
+        <v>21</v>
+      </c>
+      <c r="B43" s="10">
+        <v>21</v>
+      </c>
+      <c r="C43" s="10">
+        <v>21</v>
+      </c>
+      <c r="D43" s="10">
+        <v>21</v>
+      </c>
+      <c r="E43" s="10">
+        <v>21</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="12">
-        <v>20</v>
-      </c>
-      <c r="B42" s="12">
-        <v>20</v>
-      </c>
-      <c r="C42" s="12">
-        <v>20</v>
-      </c>
-      <c r="D42" s="12">
-        <v>20</v>
-      </c>
-      <c r="E42" s="12">
-        <v>20</v>
-      </c>
-      <c r="F42" s="13">
-        <v>20</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="12">
-        <v>21</v>
-      </c>
-      <c r="B43" s="12">
-        <v>21</v>
-      </c>
-      <c r="C43" s="12">
-        <v>21</v>
-      </c>
-      <c r="D43" s="12">
-        <v>21</v>
-      </c>
-      <c r="E43" s="12">
-        <v>21</v>
-      </c>
-      <c r="F43" s="12">
-        <v>21</v>
-      </c>
-      <c r="G43" s="12">
+      <c r="G43" s="10">
         <v>21</v>
       </c>
     </row>
@@ -5423,4 +5712,631 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="19.015625" customWidth="1"/>
+    <col min="2" max="2" width="26.9375" customWidth="1"/>
+    <col min="3" max="3" width="31.6875" customWidth="1"/>
+    <col min="4" max="5" width="12" customWidth="1"/>
+    <col min="6" max="7" width="25.8125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" ht="51" spans="1:7">
+      <c r="A19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" ht="17" spans="1:7">
+      <c r="A29" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" ht="17" spans="1:7">
+      <c r="A30" s="10">
+        <v>8</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="10">
+        <v>8</v>
+      </c>
+      <c r="G30" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" ht="34" spans="1:7">
+      <c r="A31" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="12">
+        <v>9</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" ht="48" spans="1:7">
+      <c r="A32" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="12">
+        <v>10</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="13">
+        <v>10</v>
+      </c>
+      <c r="E32" s="11">
+        <v>10</v>
+      </c>
+      <c r="F32" s="12">
+        <v>10</v>
+      </c>
+      <c r="G32" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="10">
+        <v>11</v>
+      </c>
+      <c r="B33" s="10">
+        <v>11</v>
+      </c>
+      <c r="C33" s="10">
+        <v>11</v>
+      </c>
+      <c r="D33" s="10">
+        <v>11</v>
+      </c>
+      <c r="E33" s="10">
+        <v>11</v>
+      </c>
+      <c r="F33" s="10">
+        <v>11</v>
+      </c>
+      <c r="G33" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" ht="17" spans="1:7">
+      <c r="A34" s="10">
+        <v>12</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="10">
+        <v>12</v>
+      </c>
+      <c r="G34" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="84" spans="1:7">
+      <c r="A35" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="10">
+        <v>13</v>
+      </c>
+      <c r="C35" s="10">
+        <v>13</v>
+      </c>
+      <c r="D35" s="10">
+        <v>13</v>
+      </c>
+      <c r="E35" s="10">
+        <v>13</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="10">
+        <v>14</v>
+      </c>
+      <c r="B36" s="10">
+        <v>14</v>
+      </c>
+      <c r="C36" s="10">
+        <v>14</v>
+      </c>
+      <c r="D36" s="11">
+        <v>14</v>
+      </c>
+      <c r="E36" s="10">
+        <v>14</v>
+      </c>
+      <c r="F36" s="10">
+        <v>14</v>
+      </c>
+      <c r="G36" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="10">
+        <v>15</v>
+      </c>
+      <c r="B37" s="10">
+        <v>15</v>
+      </c>
+      <c r="C37" s="10">
+        <v>15</v>
+      </c>
+      <c r="D37" s="10">
+        <v>15</v>
+      </c>
+      <c r="E37" s="10">
+        <v>15</v>
+      </c>
+      <c r="F37" s="11">
+        <v>15</v>
+      </c>
+      <c r="G37" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="10">
+        <v>16</v>
+      </c>
+      <c r="B38" s="10">
+        <v>16</v>
+      </c>
+      <c r="C38" s="10">
+        <v>16</v>
+      </c>
+      <c r="D38" s="10">
+        <v>16</v>
+      </c>
+      <c r="E38" s="10">
+        <v>16</v>
+      </c>
+      <c r="F38" s="10">
+        <v>16</v>
+      </c>
+      <c r="G38" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="10">
+        <v>17</v>
+      </c>
+      <c r="B39" s="10">
+        <v>17</v>
+      </c>
+      <c r="C39" s="10">
+        <v>17</v>
+      </c>
+      <c r="D39" s="10">
+        <v>17</v>
+      </c>
+      <c r="E39" s="10">
+        <v>17</v>
+      </c>
+      <c r="F39" s="10">
+        <v>17</v>
+      </c>
+      <c r="G39" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="10">
+        <v>18</v>
+      </c>
+      <c r="B40" s="10">
+        <v>18</v>
+      </c>
+      <c r="C40" s="10">
+        <v>18</v>
+      </c>
+      <c r="D40" s="10">
+        <v>18</v>
+      </c>
+      <c r="E40" s="10">
+        <v>18</v>
+      </c>
+      <c r="F40" s="10">
+        <v>18</v>
+      </c>
+      <c r="G40" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" ht="17" spans="1:7">
+      <c r="A41" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" ht="17" spans="1:7">
+      <c r="A42" s="10">
+        <v>20</v>
+      </c>
+      <c r="B42" s="10">
+        <v>20</v>
+      </c>
+      <c r="C42" s="10">
+        <v>20</v>
+      </c>
+      <c r="D42" s="10">
+        <v>20</v>
+      </c>
+      <c r="E42" s="10">
+        <v>20</v>
+      </c>
+      <c r="F42" s="11">
+        <v>20</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="10">
+        <v>21</v>
+      </c>
+      <c r="B43" s="10">
+        <v>21</v>
+      </c>
+      <c r="C43" s="10">
+        <v>21</v>
+      </c>
+      <c r="D43" s="10">
+        <v>21</v>
+      </c>
+      <c r="E43" s="10">
+        <v>21</v>
+      </c>
+      <c r="F43" s="10">
+        <v>21</v>
+      </c>
+      <c r="G43" s="10">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A28:G28"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/week_plan/2021_march_weekplan.xlsx
+++ b/week_plan/2021_march_weekplan.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
   <si>
     <t>周计划</t>
   </si>
@@ -1542,19 +1542,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">7  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>锻炼</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
@@ -1624,6 +1611,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">9  </t>
     </r>
     <r>
@@ -1752,6 +1745,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">13  </t>
     </r>
     <r>
@@ -1834,6 +1833,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">20   </t>
     </r>
     <r>
@@ -1848,6 +1853,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">21  </t>
     </r>
     <r>
@@ -1861,6 +1872,52 @@
     </r>
   </si>
   <si>
+    <t>第 3 周(3.29~4.2)</t>
+  </si>
+  <si>
+    <t>atom3d引擎代码熟悉+filament材质相关的理解</t>
+  </si>
+  <si>
+    <t>每日联系,  关心日常, 买房事宜</t>
+  </si>
+  <si>
+    <t>atom3d引擎代码+filament材质相关的理解</t>
+  </si>
+  <si>
+    <t>专利</t>
+  </si>
+  <si>
+    <t>atom3d源码+ailament源码</t>
+  </si>
+  <si>
+    <t>引擎调研的计划</t>
+  </si>
+  <si>
+    <t>路径动画问题, 设计思路</t>
+  </si>
+  <si>
+    <t>阅读+买房事宜</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联系日常</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1873,6 +1930,95 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引擎调研计划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>愿景</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路径动画问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计思路</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专利</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
@@ -1881,113 +2027,78 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">10  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Q1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">OKR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>复盘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> + Q2 OKR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设定</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">13  </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="0" tint="-0.35"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">路径动画对齐问题
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">SPIR-V </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>相关了解</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">13  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t>computer architecture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">20  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>filament源码阅读</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">20  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>filament 源码阅读</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> filament 源码阅读</t>
     </r>
   </si>
 </sst>
@@ -1996,12 +2107,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2045,37 +2156,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2083,14 +2172,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2106,14 +2187,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2135,6 +2209,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -2151,25 +2246,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2180,13 +2261,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0" tint="-0.5"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2197,19 +2319,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体-简"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="9"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
-      <name val="宋体-简"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2227,20 +2338,13 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
-      <name val="Calibri"/>
+      <name val="宋体-简"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.5"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.5"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2265,7 +2369,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2277,49 +2513,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2337,115 +2537,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2514,26 +2618,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2568,27 +2654,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2608,87 +2688,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2697,58 +2801,58 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2795,10 +2899,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3473,22 +3577,22 @@
       </c>
     </row>
     <row r="32" ht="34" spans="1:7">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G32" s="10">
@@ -4175,22 +4279,22 @@
       </c>
     </row>
     <row r="32" ht="17" spans="1:7">
-      <c r="A32" s="13">
+      <c r="A32" s="12">
         <v>10</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="13">
         <v>10</v>
       </c>
       <c r="C32" s="10">
         <v>10</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="12">
         <v>10</v>
       </c>
       <c r="E32" s="11">
         <v>10</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="13" t="s">
         <v>70</v>
       </c>
       <c r="G32" s="10" t="s">
@@ -4780,16 +4884,16 @@
       <c r="A31" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="13" t="s">
         <v>94</v>
       </c>
       <c r="F31" s="10">
@@ -4800,22 +4904,22 @@
       </c>
     </row>
     <row r="32" ht="17" spans="1:7">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="13">
         <v>10</v>
       </c>
       <c r="C32" s="10">
         <v>10</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="12">
         <v>10</v>
       </c>
       <c r="E32" s="11">
         <v>10</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="13" t="s">
         <v>70</v>
       </c>
       <c r="G32" s="10" t="s">
@@ -5378,7 +5482,7 @@
         <v>31</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="17" spans="1:7">
@@ -5406,44 +5510,44 @@
     </row>
     <row r="31" ht="34" spans="1:7">
       <c r="A31" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="C31" s="13">
+        <v>9</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="12">
-        <v>9</v>
-      </c>
-      <c r="D31" s="12" t="s">
+      <c r="E31" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="G31" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="32" ht="17" spans="1:7">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="13">
+        <v>10</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="12">
-        <v>10</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" s="13">
+      <c r="D32" s="12">
         <v>10</v>
       </c>
       <c r="E32" s="11">
         <v>10</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="13">
         <v>10</v>
       </c>
       <c r="G32" s="10">
@@ -5478,16 +5582,16 @@
         <v>12</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F34" s="10">
         <v>12</v>
@@ -5497,8 +5601,8 @@
       </c>
     </row>
     <row r="35" ht="34" spans="1:7">
-      <c r="A35" s="12" t="s">
-        <v>127</v>
+      <c r="A35" s="13" t="s">
+        <v>126</v>
       </c>
       <c r="B35" s="10">
         <v>13</v>
@@ -5513,7 +5617,7 @@
         <v>13</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G35" s="10">
         <v>13</v>
@@ -5636,13 +5740,13 @@
     </row>
     <row r="41" ht="17" spans="1:7">
       <c r="A41" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>49</v>
@@ -5677,7 +5781,7 @@
         <v>20</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -5697,7 +5801,7 @@
         <v>21</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G43" s="10">
         <v>21</v>
@@ -5720,15 +5824,16 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="19.015625" customWidth="1"/>
-    <col min="2" max="2" width="26.9375" customWidth="1"/>
-    <col min="3" max="3" width="31.6875" customWidth="1"/>
-    <col min="4" max="5" width="12" customWidth="1"/>
+    <col min="1" max="1" width="21.09375" customWidth="1"/>
+    <col min="2" max="2" width="32.8125" customWidth="1"/>
+    <col min="3" max="3" width="36.0703125" customWidth="1"/>
+    <col min="4" max="4" width="19.5234375" customWidth="1"/>
+    <col min="5" max="5" width="17.8359375" customWidth="1"/>
     <col min="6" max="7" width="25.8125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5738,7 +5843,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5768,17 +5873,14 @@
       <c r="B4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5796,7 +5898,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -5817,14 +5919,14 @@
     <row r="11" spans="1:3">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
-        <v>111</v>
+      <c r="B12" t="s">
+        <v>137</v>
       </c>
       <c r="C12" s="4"/>
     </row>
@@ -5877,24 +5979,22 @@
       <c r="F18" s="6"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" ht="51" spans="1:7">
+    <row r="19" ht="34" spans="1:7">
       <c r="A19" s="7" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>115</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="E19" s="15"/>
       <c r="F19" s="9" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>63</v>
@@ -5903,9 +6003,7 @@
     <row r="20" spans="1:7">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -5986,14 +6084,14 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" ht="17" spans="1:7">
-      <c r="A29" s="10" t="s">
-        <v>117</v>
+      <c r="A29" s="10">
+        <v>7</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>30</v>
@@ -6015,8 +6113,8 @@
       <c r="B30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>33</v>
+      <c r="C30" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>33</v>
@@ -6031,46 +6129,46 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" ht="34" spans="1:7">
-      <c r="A31" s="10" t="s">
-        <v>120</v>
+    <row r="31" ht="17" spans="1:7">
+      <c r="A31" s="10">
+        <v>9</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="12">
+        <v>143</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="12">
         <v>9</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>134</v>
+      <c r="F31" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" ht="48" spans="1:7">
-      <c r="A32" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" s="12">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" ht="17" spans="1:7">
+      <c r="A32" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="13">
         <v>10</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" s="13">
+      <c r="C32" s="10">
+        <v>10</v>
+      </c>
+      <c r="D32" s="12">
         <v>10</v>
       </c>
       <c r="E32" s="11">
         <v>10</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="13">
         <v>10</v>
       </c>
       <c r="G32" s="10">
@@ -6105,16 +6203,16 @@
         <v>12</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F34" s="10">
         <v>12</v>
@@ -6123,9 +6221,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" ht="84" spans="1:7">
-      <c r="A35" s="12" t="s">
-        <v>136</v>
+    <row r="35" spans="1:7">
+      <c r="A35" s="13">
+        <v>13</v>
       </c>
       <c r="B35" s="10">
         <v>13</v>
@@ -6139,11 +6237,11 @@
       <c r="E35" s="10">
         <v>13</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>137</v>
+      <c r="F35" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -6263,13 +6361,13 @@
     </row>
     <row r="41" ht="17" spans="1:7">
       <c r="A41" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="B41" s="11">
+        <v>19</v>
+      </c>
+      <c r="C41" s="11">
+        <v>19</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>49</v>
@@ -6285,20 +6383,20 @@
       </c>
     </row>
     <row r="42" ht="17" spans="1:7">
-      <c r="A42" s="10">
-        <v>20</v>
-      </c>
-      <c r="B42" s="10">
-        <v>20</v>
-      </c>
-      <c r="C42" s="10">
-        <v>20</v>
-      </c>
-      <c r="D42" s="10">
-        <v>20</v>
-      </c>
-      <c r="E42" s="10">
-        <v>20</v>
+      <c r="A42" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="F42" s="11">
         <v>20</v>
